--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_19_19.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_19_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-15884.03728584346</v>
+        <v>-24188.93249349784</v>
       </c>
     </row>
     <row r="7">
@@ -1369,19 +1369,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>82.99383772901977</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>372.8965137528686</v>
       </c>
       <c r="G11" t="n">
         <v>395.5076644073176</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1463,7 +1463,7 @@
         <v>82.55</v>
       </c>
       <c r="G12" t="n">
-        <v>83.52738940623966</v>
+        <v>83.52738940623971</v>
       </c>
       <c r="H12" t="n">
         <v>31.62322353306971</v>
@@ -1499,10 +1499,10 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>44.17482029426311</v>
+        <v>44.1748202942631</v>
       </c>
       <c r="T12" t="n">
-        <v>124.8306395731037</v>
+        <v>124.8306395731044</v>
       </c>
       <c r="U12" t="n">
         <v>174.5071388043578</v>
@@ -1530,25 +1530,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>109.8004519292408</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>2.188007759424618</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>131.0206200144772</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>62.46433369811442</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1587,10 +1587,10 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1606,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>210.8925106057798</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>40.06170608735098</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>188.2429559239316</v>
       </c>
       <c r="Y14" t="n">
         <v>404.2032624633431</v>
@@ -1764,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>131.3576479578673</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1815,13 +1815,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T16" t="n">
-        <v>134.8967801895894</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
@@ -1833,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1855,13 +1855,13 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>48.50583343253361</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
         <v>395.5076644073176</v>
       </c>
       <c r="H17" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1897,10 +1897,10 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>50.41246830195891</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V17" t="n">
         <v>358.9907805655117</v>
@@ -1909,7 +1909,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>404.2032624633431</v>
@@ -1940,7 +1940,7 @@
         <v>83.52738940623971</v>
       </c>
       <c r="H18" t="n">
-        <v>31.62322353306968</v>
+        <v>31.62322353306971</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>44.1748202942631</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T18" t="n">
         <v>124.8306395731037</v>
@@ -2004,19 +2004,19 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>24.83686707040878</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2052,19 +2052,19 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>40.81179447522089</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T19" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2086,16 +2086,16 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>267.0243359415286</v>
@@ -2131,22 +2131,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>36.16739218089744</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>335.3717788786058</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2177,7 +2177,7 @@
         <v>83.52738940623971</v>
       </c>
       <c r="H21" t="n">
-        <v>31.62322353306971</v>
+        <v>31.62322353306968</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2244,13 +2244,13 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>24.83686707040878</v>
       </c>
       <c r="G22" t="n">
         <v>163.0937685836068</v>
@@ -2259,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2292,7 +2292,7 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T22" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2301,7 +2301,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>54.8274180989295</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2326,13 +2326,13 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H23" t="n">
         <v>267.0243359415286</v>
@@ -2368,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>256.4799845637012</v>
       </c>
       <c r="V23" t="n">
-        <v>358.9907805655117</v>
+        <v>117.1451779959979</v>
       </c>
       <c r="W23" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X23" t="n">
-        <v>352.7693069597029</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2490,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H25" t="n">
-        <v>28.27178010093639</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I25" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2535,13 +2535,13 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>284.0859530482738</v>
+        <v>27.67027366111624</v>
       </c>
       <c r="W25" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2557,16 +2557,16 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>185.6367536273938</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>423.5887552948843</v>
+        <v>224.285978493914</v>
       </c>
       <c r="G26" t="n">
         <v>395.5076644073176</v>
@@ -2608,22 +2608,22 @@
         <v>40.06170608735099</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X26" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="27">
@@ -2651,7 +2651,7 @@
         <v>83.52738940623971</v>
       </c>
       <c r="H27" t="n">
-        <v>31.62322353306969</v>
+        <v>31.62322353306971</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2712,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2727,10 +2727,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>26.78613228138497</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>1.104912620080257</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2794,22 +2794,22 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>264.3476845812649</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>3.008008304820746</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V29" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="30">
@@ -2955,19 +2955,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>64.65234145753885</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3000,22 +3000,22 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T31" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>34.5151692130476</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3028,19 +3028,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>367.0560364781887</v>
       </c>
       <c r="C32" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D32" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>185.3313864496391</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="33">
@@ -3186,16 +3186,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>21.46309226764892</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3240,22 +3240,22 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>49.29498189175004</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="35">
@@ -3265,25 +3265,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>422.0365747800587</v>
+        <v>394.7650687814539</v>
       </c>
       <c r="C35" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>395.5076644073176</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>214.2888730260456</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="36">
@@ -3401,7 +3401,7 @@
         <v>124.8306395731037</v>
       </c>
       <c r="U36" t="n">
-        <v>174.5071388043578</v>
+        <v>174.5071388043577</v>
       </c>
       <c r="V36" t="n">
         <v>197.1263427586206</v>
@@ -3432,19 +3432,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>5.033780699103743</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3480,13 +3480,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>269.3061403695714</v>
+        <v>265.4701302573406</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3505,19 +3505,19 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>339.7837571550526</v>
       </c>
       <c r="F38" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T38" t="n">
-        <v>0.2253069885711193</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>256.4799845637012</v>
       </c>
       <c r="V38" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>44.17482029426318</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T39" t="n">
         <v>124.8306395731037</v>
@@ -3675,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I40" t="n">
-        <v>5.033780699103757</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>171.7865040607687</v>
       </c>
       <c r="U40" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="41">
@@ -3739,25 +3739,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>172.5998412330484</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3793,19 +3793,19 @@
         <v>40.06170608735099</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V41" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>361.464905015728</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3903,13 +3903,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>174.9399834978613</v>
+        <v>2.188007759424393</v>
       </c>
       <c r="G43" t="n">
         <v>163.0937685836068</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>134.4495102428634</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3979,10 +3979,10 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>328.5107569703947</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -4039,10 +4039,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>361.464905015728</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4146,16 +4146,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>2.188007759424393</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H46" t="n">
         <v>131.0206200144773</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -4194,10 +4194,10 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>86.6424301036795</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -5017,16 +5017,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2024.257796809404</v>
+        <v>1526.86868437219</v>
       </c>
       <c r="C11" t="n">
-        <v>1586.115323992828</v>
+        <v>1526.86868437219</v>
       </c>
       <c r="D11" t="n">
-        <v>1150.205539167272</v>
+        <v>1526.86868437219</v>
       </c>
       <c r="E11" t="n">
-        <v>716.4307943255671</v>
+        <v>1093.093939530485</v>
       </c>
       <c r="F11" t="n">
         <v>716.4307943255671</v>
@@ -5038,19 +5038,19 @@
         <v>47.20655154895474</v>
       </c>
       <c r="I11" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001354</v>
       </c>
       <c r="J11" t="n">
         <v>276.0532770435806</v>
       </c>
       <c r="K11" t="n">
-        <v>512.3249274228016</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L11" t="n">
-        <v>805.4408022867025</v>
+        <v>805.4408022867023</v>
       </c>
       <c r="M11" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N11" t="n">
         <v>1463.013992431967</v>
@@ -5068,25 +5068,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S11" t="n">
-        <v>2319.861207662534</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T11" t="n">
-        <v>2108.089956131646</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="U11" t="n">
-        <v>2108.089956131646</v>
+        <v>1889.485634438363</v>
       </c>
       <c r="V11" t="n">
-        <v>2108.089956131646</v>
+        <v>1526.86868437219</v>
       </c>
       <c r="W11" t="n">
-        <v>2108.089956131646</v>
+        <v>1526.86868437219</v>
       </c>
       <c r="X11" t="n">
-        <v>2108.089956131646</v>
+        <v>1526.86868437219</v>
       </c>
       <c r="Y11" t="n">
-        <v>2108.089956131646</v>
+        <v>1526.86868437219</v>
       </c>
     </row>
     <row r="12">
@@ -5099,16 +5099,16 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C12" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D12" t="n">
-        <v>341.0245550495863</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E12" t="n">
-        <v>246.90414037654</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F12" t="n">
-        <v>163.5203019927016</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G12" t="n">
         <v>79.1492015823585</v>
@@ -5123,13 +5123,13 @@
         <v>175.316627066898</v>
       </c>
       <c r="K12" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210683</v>
       </c>
       <c r="L12" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960907</v>
       </c>
       <c r="M12" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987882</v>
       </c>
       <c r="N12" t="n">
         <v>1061.861364220108</v>
@@ -5141,13 +5141,13 @@
         <v>1488.088567599445</v>
       </c>
       <c r="Q12" t="n">
-        <v>1614.947661807679</v>
+        <v>1614.94766180768</v>
       </c>
       <c r="R12" t="n">
-        <v>1676.651116233592</v>
+        <v>1676.651116233593</v>
       </c>
       <c r="S12" t="n">
-        <v>1632.030085633326</v>
+        <v>1632.030085633327</v>
       </c>
       <c r="T12" t="n">
         <v>1505.938530508979</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>330.6778104690033</v>
+        <v>745.2331845165161</v>
       </c>
       <c r="C13" t="n">
-        <v>158.1160989522282</v>
+        <v>745.2331845165161</v>
       </c>
       <c r="D13" t="n">
-        <v>47.20655154895474</v>
+        <v>579.3551917180388</v>
       </c>
       <c r="E13" t="n">
-        <v>47.20655154895474</v>
+        <v>409.597187968776</v>
       </c>
       <c r="F13" t="n">
-        <v>47.20655154895474</v>
+        <v>407.3870791208724</v>
       </c>
       <c r="G13" t="n">
-        <v>47.20655154895474</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H13" t="n">
-        <v>47.20655154895474</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I13" t="n">
         <v>47.20655154895474</v>
@@ -5202,49 +5202,49 @@
         <v>106.1122152511379</v>
       </c>
       <c r="K13" t="n">
-        <v>202.912315818696</v>
+        <v>202.9123158186961</v>
       </c>
       <c r="L13" t="n">
-        <v>326.783117436994</v>
+        <v>326.7831174369941</v>
       </c>
       <c r="M13" t="n">
-        <v>457.3875097755234</v>
+        <v>457.3875097755235</v>
       </c>
       <c r="N13" t="n">
-        <v>584.886421579413</v>
+        <v>584.8864215794131</v>
       </c>
       <c r="O13" t="n">
-        <v>702.6523029271748</v>
+        <v>702.6523029271749</v>
       </c>
       <c r="P13" t="n">
-        <v>803.4213591048583</v>
+        <v>803.4213591048584</v>
       </c>
       <c r="Q13" t="n">
-        <v>873.1886303355139</v>
+        <v>873.1886303355141</v>
       </c>
       <c r="R13" t="n">
-        <v>889.6597230122813</v>
+        <v>889.6597230122816</v>
       </c>
       <c r="S13" t="n">
-        <v>889.6597230122813</v>
+        <v>745.2331845165161</v>
       </c>
       <c r="T13" t="n">
-        <v>889.6597230122813</v>
+        <v>745.2331845165161</v>
       </c>
       <c r="U13" t="n">
-        <v>889.6597230122813</v>
+        <v>745.2331845165161</v>
       </c>
       <c r="V13" t="n">
-        <v>602.7042148827118</v>
+        <v>745.2331845165161</v>
       </c>
       <c r="W13" t="n">
-        <v>330.6778104690033</v>
+        <v>745.2331845165161</v>
       </c>
       <c r="X13" t="n">
-        <v>330.6778104690033</v>
+        <v>745.2331845165161</v>
       </c>
       <c r="Y13" t="n">
-        <v>330.6778104690033</v>
+        <v>745.2331845165161</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1525.741883262483</v>
+        <v>483.1163363745102</v>
       </c>
       <c r="C14" t="n">
-        <v>1087.599410445906</v>
+        <v>483.1163363745102</v>
       </c>
       <c r="D14" t="n">
-        <v>1087.599410445906</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="E14" t="n">
-        <v>1087.599410445906</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="F14" t="n">
-        <v>659.7319808551138</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G14" t="n">
-        <v>260.2292895345909</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H14" t="n">
         <v>47.20655154895474</v>
@@ -5305,25 +5305,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S14" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T14" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U14" t="n">
-        <v>2360.327577447737</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V14" t="n">
-        <v>2360.327577447737</v>
+        <v>1486.402314586987</v>
       </c>
       <c r="W14" t="n">
-        <v>2360.327577447737</v>
+        <v>1081.54685999802</v>
       </c>
       <c r="X14" t="n">
-        <v>2360.327577447737</v>
+        <v>891.4024600748569</v>
       </c>
       <c r="Y14" t="n">
-        <v>1952.04145374739</v>
+        <v>483.1163363745102</v>
       </c>
     </row>
     <row r="15">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1517.87440598441</v>
+        <v>179.8910444356894</v>
       </c>
       <c r="C16" t="n">
-        <v>1517.87440598441</v>
+        <v>179.8910444356894</v>
       </c>
       <c r="D16" t="n">
-        <v>1517.87440598441</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="E16" t="n">
-        <v>1517.87440598441</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="F16" t="n">
-        <v>1517.87440598441</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G16" t="n">
-        <v>1517.87440598441</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H16" t="n">
-        <v>1517.87440598441</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I16" t="n">
-        <v>1517.87440598441</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J16" t="n">
-        <v>1576.780069686593</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K16" t="n">
-        <v>1673.580170254151</v>
+        <v>202.9123158186961</v>
       </c>
       <c r="L16" t="n">
-        <v>1797.450971872449</v>
+        <v>326.7831174369941</v>
       </c>
       <c r="M16" t="n">
-        <v>1928.055364210979</v>
+        <v>457.3875097755235</v>
       </c>
       <c r="N16" t="n">
-        <v>2055.554276014868</v>
+        <v>584.8864215794131</v>
       </c>
       <c r="O16" t="n">
-        <v>2173.32015736263</v>
+        <v>702.6523029271749</v>
       </c>
       <c r="P16" t="n">
-        <v>2274.089213540314</v>
+        <v>803.4213591048584</v>
       </c>
       <c r="Q16" t="n">
-        <v>2343.856484770969</v>
+        <v>873.1886303355141</v>
       </c>
       <c r="R16" t="n">
-        <v>2360.327577447737</v>
+        <v>889.6597230122815</v>
       </c>
       <c r="S16" t="n">
-        <v>2360.327577447737</v>
+        <v>745.233184516516</v>
       </c>
       <c r="T16" t="n">
-        <v>2224.068203518859</v>
+        <v>745.233184516516</v>
       </c>
       <c r="U16" t="n">
-        <v>2224.068203518859</v>
+        <v>466.8465525652589</v>
       </c>
       <c r="V16" t="n">
-        <v>1937.112695389289</v>
+        <v>179.8910444356894</v>
       </c>
       <c r="W16" t="n">
-        <v>1937.112695389289</v>
+        <v>179.8910444356894</v>
       </c>
       <c r="X16" t="n">
-        <v>1937.112695389289</v>
+        <v>179.8910444356894</v>
       </c>
       <c r="Y16" t="n">
-        <v>1709.693024703397</v>
+        <v>179.8910444356894</v>
       </c>
     </row>
     <row r="17">
@@ -5491,40 +5491,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>765.4265856715607</v>
+        <v>874.5766724602698</v>
       </c>
       <c r="C17" t="n">
-        <v>765.4265856715607</v>
+        <v>874.5766724602698</v>
       </c>
       <c r="D17" t="n">
-        <v>765.4265856715607</v>
+        <v>874.5766724602698</v>
       </c>
       <c r="E17" t="n">
-        <v>765.4265856715607</v>
+        <v>874.5766724602698</v>
       </c>
       <c r="F17" t="n">
-        <v>716.4307943255671</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G17" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H17" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I17" t="n">
         <v>118.4065018001353</v>
       </c>
       <c r="J17" t="n">
-        <v>276.0532770435805</v>
+        <v>276.0532770435806</v>
       </c>
       <c r="K17" t="n">
-        <v>512.3249274228015</v>
+        <v>512.3249274228016</v>
       </c>
       <c r="L17" t="n">
-        <v>805.4408022867024</v>
+        <v>805.4408022867023</v>
       </c>
       <c r="M17" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N17" t="n">
         <v>1463.013992431967</v>
@@ -5533,7 +5533,7 @@
         <v>1775.96950697326</v>
       </c>
       <c r="P17" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q17" t="n">
         <v>2243.650993163596</v>
@@ -5545,22 +5545,22 @@
         <v>2360.327577447737</v>
       </c>
       <c r="T17" t="n">
-        <v>2360.327577447737</v>
+        <v>2309.405892294243</v>
       </c>
       <c r="U17" t="n">
-        <v>2360.327577447737</v>
+        <v>2050.335200815757</v>
       </c>
       <c r="V17" t="n">
-        <v>1997.710627381563</v>
+        <v>1687.718250749583</v>
       </c>
       <c r="W17" t="n">
-        <v>1592.855172792597</v>
+        <v>1282.862796160616</v>
       </c>
       <c r="X17" t="n">
-        <v>1173.712709371907</v>
+        <v>1282.862796160616</v>
       </c>
       <c r="Y17" t="n">
-        <v>765.4265856715607</v>
+        <v>874.5766724602698</v>
       </c>
     </row>
     <row r="18">
@@ -5585,13 +5585,13 @@
         <v>163.5203019927016</v>
       </c>
       <c r="G18" t="n">
-        <v>79.14920158235846</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H18" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I18" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J18" t="n">
         <v>175.316627066898</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1517.87440598441</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="C19" t="n">
-        <v>1517.87440598441</v>
+        <v>572.6714729997408</v>
       </c>
       <c r="D19" t="n">
-        <v>1517.87440598441</v>
+        <v>406.7934802012635</v>
       </c>
       <c r="E19" t="n">
-        <v>1517.87440598441</v>
+        <v>237.0354764520008</v>
       </c>
       <c r="F19" t="n">
-        <v>1517.87440598441</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="G19" t="n">
-        <v>1517.87440598441</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H19" t="n">
-        <v>1517.87440598441</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I19" t="n">
-        <v>1517.87440598441</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J19" t="n">
-        <v>1576.780069686593</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K19" t="n">
-        <v>1673.580170254151</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L19" t="n">
-        <v>1797.450971872449</v>
+        <v>326.783117436994</v>
       </c>
       <c r="M19" t="n">
-        <v>1928.055364210979</v>
+        <v>457.3875097755234</v>
       </c>
       <c r="N19" t="n">
-        <v>2055.554276014868</v>
+        <v>584.886421579413</v>
       </c>
       <c r="O19" t="n">
-        <v>2173.32015736263</v>
+        <v>702.6523029271748</v>
       </c>
       <c r="P19" t="n">
-        <v>2274.089213540314</v>
+        <v>803.4213591048583</v>
       </c>
       <c r="Q19" t="n">
-        <v>2343.856484770969</v>
+        <v>873.1886303355139</v>
       </c>
       <c r="R19" t="n">
-        <v>2360.327577447737</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="S19" t="n">
-        <v>2319.103542624282</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="T19" t="n">
-        <v>2076.856318527688</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="U19" t="n">
-        <v>2076.856318527688</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="V19" t="n">
-        <v>1789.900810398119</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="W19" t="n">
-        <v>1517.87440598441</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="X19" t="n">
-        <v>1517.87440598441</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="Y19" t="n">
-        <v>1517.87440598441</v>
+        <v>745.2331845165158</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2024.257796809404</v>
+        <v>1616.712750254118</v>
       </c>
       <c r="C20" t="n">
-        <v>1586.115323992828</v>
+        <v>1178.570277437541</v>
       </c>
       <c r="D20" t="n">
-        <v>1150.205539167272</v>
+        <v>1178.570277437541</v>
       </c>
       <c r="E20" t="n">
-        <v>716.4307943255671</v>
+        <v>744.7955325958366</v>
       </c>
       <c r="F20" t="n">
-        <v>716.4307943255671</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="G20" t="n">
         <v>316.9281030050443</v>
@@ -5752,13 +5752,13 @@
         <v>118.4065018001353</v>
       </c>
       <c r="J20" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435808</v>
       </c>
       <c r="K20" t="n">
-        <v>512.3249274228016</v>
+        <v>512.3249274228018</v>
       </c>
       <c r="L20" t="n">
-        <v>805.4408022867023</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M20" t="n">
         <v>1131.58869045549</v>
@@ -5779,25 +5779,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S20" t="n">
-        <v>2319.861207662534</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T20" t="n">
-        <v>2283.32848828789</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="U20" t="n">
-        <v>2024.257796809404</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="V20" t="n">
-        <v>2024.257796809404</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="W20" t="n">
-        <v>2024.257796809404</v>
+        <v>1955.47212285877</v>
       </c>
       <c r="X20" t="n">
-        <v>2024.257796809404</v>
+        <v>1616.712750254118</v>
       </c>
       <c r="Y20" t="n">
-        <v>2024.257796809404</v>
+        <v>1616.712750254118</v>
       </c>
     </row>
     <row r="21">
@@ -5807,40 +5807,40 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>542.571305066391</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C21" t="n">
-        <v>436.1148439030333</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D21" t="n">
-        <v>341.0245550495866</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E21" t="n">
-        <v>246.9041403765403</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F21" t="n">
-        <v>163.5203019927019</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G21" t="n">
-        <v>79.14920158235873</v>
+        <v>79.14920158235846</v>
       </c>
       <c r="H21" t="n">
         <v>47.20655154895474</v>
       </c>
       <c r="I21" t="n">
-        <v>81.42328772043098</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J21" t="n">
         <v>175.316627066898</v>
       </c>
       <c r="K21" t="n">
-        <v>335.7952991210681</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L21" t="n">
-        <v>551.5786779960905</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M21" t="n">
-        <v>803.3877032987879</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N21" t="n">
         <v>1061.861364220108</v>
@@ -5870,13 +5870,13 @@
         <v>1130.551175394859</v>
       </c>
       <c r="W21" t="n">
-        <v>945.2284211280535</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X21" t="n">
-        <v>790.3609853669334</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y21" t="n">
-        <v>663.8752061461541</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="22">
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>447.6047300169633</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="C22" t="n">
-        <v>275.0430185001883</v>
+        <v>572.6714729997408</v>
       </c>
       <c r="D22" t="n">
-        <v>275.0430185001883</v>
+        <v>406.7934802012635</v>
       </c>
       <c r="E22" t="n">
-        <v>275.0430185001883</v>
+        <v>237.0354764520008</v>
       </c>
       <c r="F22" t="n">
-        <v>275.0430185001883</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="G22" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H22" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I22" t="n">
         <v>47.20655154895474</v>
@@ -5940,22 +5940,22 @@
         <v>745.2331845165158</v>
       </c>
       <c r="T22" t="n">
-        <v>502.9859604199224</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="U22" t="n">
-        <v>502.9859604199224</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="V22" t="n">
-        <v>502.9859604199224</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="W22" t="n">
-        <v>447.6047300169633</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="X22" t="n">
-        <v>447.6047300169633</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="Y22" t="n">
-        <v>447.6047300169633</v>
+        <v>745.2331845165158</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>316.9281030050443</v>
+        <v>1578.072968758064</v>
       </c>
       <c r="C23" t="n">
-        <v>316.9281030050443</v>
+        <v>1578.072968758064</v>
       </c>
       <c r="D23" t="n">
-        <v>316.9281030050443</v>
+        <v>1578.072968758064</v>
       </c>
       <c r="E23" t="n">
-        <v>316.9281030050443</v>
+        <v>1144.298223916359</v>
       </c>
       <c r="F23" t="n">
-        <v>316.9281030050443</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G23" t="n">
         <v>316.9281030050443</v>
@@ -5986,28 +5986,28 @@
         <v>47.20655154895474</v>
       </c>
       <c r="I23" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001355</v>
       </c>
       <c r="J23" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435807</v>
       </c>
       <c r="K23" t="n">
-        <v>512.3249274228016</v>
+        <v>512.3249274228017</v>
       </c>
       <c r="L23" t="n">
-        <v>805.4408022867023</v>
+        <v>805.4408022867024</v>
       </c>
       <c r="M23" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N23" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O23" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P23" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q23" t="n">
         <v>2243.650993163596</v>
@@ -6016,25 +6016,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S23" t="n">
-        <v>2319.861207662534</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T23" t="n">
-        <v>2108.089956131646</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="U23" t="n">
-        <v>1849.01926465316</v>
+        <v>2101.256885969251</v>
       </c>
       <c r="V23" t="n">
-        <v>1486.402314586987</v>
+        <v>1982.928423347031</v>
       </c>
       <c r="W23" t="n">
-        <v>1081.54685999802</v>
+        <v>1578.072968758064</v>
       </c>
       <c r="X23" t="n">
-        <v>725.214226705391</v>
+        <v>1578.072968758064</v>
       </c>
       <c r="Y23" t="n">
-        <v>316.9281030050443</v>
+        <v>1578.072968758064</v>
       </c>
     </row>
     <row r="24">
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>138.8591917500162</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="C25" t="n">
-        <v>138.8591917500162</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="D25" t="n">
-        <v>138.8591917500162</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="E25" t="n">
-        <v>138.8591917500162</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="F25" t="n">
-        <v>138.8591917500162</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="G25" t="n">
-        <v>138.8591917500162</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H25" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I25" t="n">
         <v>47.20655154895474</v>
@@ -6183,16 +6183,16 @@
         <v>889.6597230122813</v>
       </c>
       <c r="V25" t="n">
-        <v>602.7042148827118</v>
+        <v>861.7099516374165</v>
       </c>
       <c r="W25" t="n">
-        <v>330.6778104690033</v>
+        <v>589.6835472237079</v>
       </c>
       <c r="X25" t="n">
-        <v>330.6778104690033</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="Y25" t="n">
-        <v>330.6778104690033</v>
+        <v>344.2917925571204</v>
       </c>
     </row>
     <row r="26">
@@ -6202,40 +6202,40 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1495.863289652877</v>
+        <v>673.2607362976736</v>
       </c>
       <c r="C26" t="n">
-        <v>1308.351417301975</v>
+        <v>673.2607362976736</v>
       </c>
       <c r="D26" t="n">
-        <v>1308.351417301975</v>
+        <v>673.2607362976736</v>
       </c>
       <c r="E26" t="n">
-        <v>874.5766724602698</v>
+        <v>673.2607362976736</v>
       </c>
       <c r="F26" t="n">
         <v>446.7092428694776</v>
       </c>
       <c r="G26" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H26" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I26" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001356</v>
       </c>
       <c r="J26" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435808</v>
       </c>
       <c r="K26" t="n">
-        <v>512.3249274228016</v>
+        <v>512.3249274228018</v>
       </c>
       <c r="L26" t="n">
-        <v>805.4408022867021</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M26" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N26" t="n">
         <v>1463.013992431967</v>
@@ -6244,7 +6244,7 @@
         <v>1775.96950697326</v>
       </c>
       <c r="P26" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q26" t="n">
         <v>2243.650993163596</v>
@@ -6256,22 +6256,22 @@
         <v>2319.861207662534</v>
       </c>
       <c r="T26" t="n">
-        <v>2319.861207662534</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U26" t="n">
-        <v>2319.861207662534</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V26" t="n">
-        <v>2319.861207662534</v>
+        <v>1486.402314586987</v>
       </c>
       <c r="W26" t="n">
-        <v>1915.005753073567</v>
+        <v>1081.54685999802</v>
       </c>
       <c r="X26" t="n">
-        <v>1495.863289652877</v>
+        <v>1081.54685999802</v>
       </c>
       <c r="Y26" t="n">
-        <v>1495.863289652877</v>
+        <v>673.2607362976736</v>
       </c>
     </row>
     <row r="27">
@@ -6284,7 +6284,7 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C27" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D27" t="n">
         <v>341.0245550495863</v>
@@ -6296,13 +6296,13 @@
         <v>163.5203019927016</v>
       </c>
       <c r="G27" t="n">
-        <v>79.14920158235846</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H27" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I27" t="n">
-        <v>81.42328772043084</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J27" t="n">
         <v>175.316627066898</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>416.8482976598021</v>
+        <v>225.029678940815</v>
       </c>
       <c r="C28" t="n">
-        <v>416.8482976598021</v>
+        <v>225.029678940815</v>
       </c>
       <c r="D28" t="n">
-        <v>250.9703048613248</v>
+        <v>225.029678940815</v>
       </c>
       <c r="E28" t="n">
-        <v>250.9703048613248</v>
+        <v>225.029678940815</v>
       </c>
       <c r="F28" t="n">
-        <v>74.26325082308097</v>
+        <v>48.32262490257116</v>
       </c>
       <c r="G28" t="n">
-        <v>47.20655154895473</v>
+        <v>48.32262490257116</v>
       </c>
       <c r="H28" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I28" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J28" t="n">
         <v>106.1122152511379</v>
@@ -6439,49 +6439,49 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1782.900983623584</v>
+        <v>713.7271060828765</v>
       </c>
       <c r="C29" t="n">
-        <v>1344.758510807007</v>
+        <v>713.7271060828765</v>
       </c>
       <c r="D29" t="n">
-        <v>908.8487259814518</v>
+        <v>713.7271060828765</v>
       </c>
       <c r="E29" t="n">
-        <v>475.073981139747</v>
+        <v>713.7271060828765</v>
       </c>
       <c r="F29" t="n">
-        <v>47.20655154895474</v>
+        <v>713.7271060828765</v>
       </c>
       <c r="G29" t="n">
-        <v>47.20655154895474</v>
+        <v>314.2244147623537</v>
       </c>
       <c r="H29" t="n">
         <v>47.20655154895474</v>
       </c>
       <c r="I29" t="n">
-        <v>118.4065018001351</v>
+        <v>118.4065018001355</v>
       </c>
       <c r="J29" t="n">
-        <v>276.0532770435802</v>
+        <v>276.0532770435808</v>
       </c>
       <c r="K29" t="n">
-        <v>512.3249274228012</v>
+        <v>512.3249274228018</v>
       </c>
       <c r="L29" t="n">
-        <v>805.4408022867019</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M29" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N29" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O29" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P29" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q29" t="n">
         <v>2243.650993163596</v>
@@ -6490,25 +6490,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S29" t="n">
-        <v>2357.289185220645</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T29" t="n">
-        <v>2145.517933689757</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="U29" t="n">
-        <v>2145.517933689757</v>
+        <v>1889.485634438363</v>
       </c>
       <c r="V29" t="n">
-        <v>1782.900983623584</v>
+        <v>1526.86868437219</v>
       </c>
       <c r="W29" t="n">
-        <v>1782.900983623584</v>
+        <v>1122.013229783223</v>
       </c>
       <c r="X29" t="n">
-        <v>1782.900983623584</v>
+        <v>1122.013229783223</v>
       </c>
       <c r="Y29" t="n">
-        <v>1782.900983623584</v>
+        <v>713.7271060828765</v>
       </c>
     </row>
     <row r="30">
@@ -6521,25 +6521,25 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C30" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D30" t="n">
-        <v>341.0245550495863</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E30" t="n">
-        <v>246.90414037654</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F30" t="n">
-        <v>163.5203019927016</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G30" t="n">
-        <v>79.14920158235847</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H30" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I30" t="n">
-        <v>81.42328772043084</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J30" t="n">
         <v>175.316627066898</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>47.20655154895473</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="C31" t="n">
-        <v>47.20655154895473</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="D31" t="n">
-        <v>47.20655154895473</v>
+        <v>579.3551917180386</v>
       </c>
       <c r="E31" t="n">
-        <v>47.20655154895473</v>
+        <v>409.5971879687758</v>
       </c>
       <c r="F31" t="n">
-        <v>47.20655154895473</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="G31" t="n">
-        <v>47.20655154895473</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H31" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I31" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J31" t="n">
         <v>106.1122152511379</v>
@@ -6648,25 +6648,25 @@
         <v>889.6597230122813</v>
       </c>
       <c r="S31" t="n">
-        <v>889.6597230122813</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="T31" t="n">
-        <v>647.4124989156879</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="U31" t="n">
-        <v>369.0258669644309</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="V31" t="n">
-        <v>82.07035883486139</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="W31" t="n">
-        <v>82.07035883486139</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="X31" t="n">
-        <v>47.20655154895473</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="Y31" t="n">
-        <v>47.20655154895473</v>
+        <v>745.2331845165158</v>
       </c>
     </row>
     <row r="32">
@@ -6676,40 +6676,40 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1349.126238781879</v>
+        <v>919.1237692072363</v>
       </c>
       <c r="C32" t="n">
-        <v>910.9837659653025</v>
+        <v>480.9812963906596</v>
       </c>
       <c r="D32" t="n">
-        <v>475.073981139747</v>
+        <v>480.9812963906596</v>
       </c>
       <c r="E32" t="n">
-        <v>475.073981139747</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="F32" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G32" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H32" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I32" t="n">
-        <v>118.4065018001354</v>
+        <v>118.4065018001355</v>
       </c>
       <c r="J32" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435808</v>
       </c>
       <c r="K32" t="n">
-        <v>512.3249274228016</v>
+        <v>512.3249274228018</v>
       </c>
       <c r="L32" t="n">
-        <v>805.4408022867023</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M32" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N32" t="n">
         <v>1463.013992431967</v>
@@ -6718,7 +6718,7 @@
         <v>1775.96950697326</v>
       </c>
       <c r="P32" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q32" t="n">
         <v>2243.650993163596</v>
@@ -6727,25 +6727,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S32" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T32" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U32" t="n">
-        <v>2360.327577447737</v>
+        <v>2060.790516184048</v>
       </c>
       <c r="V32" t="n">
-        <v>2360.327577447737</v>
+        <v>1698.173566117875</v>
       </c>
       <c r="W32" t="n">
-        <v>1955.47212285877</v>
+        <v>1698.173566117875</v>
       </c>
       <c r="X32" t="n">
-        <v>1536.32965943808</v>
+        <v>1698.173566117875</v>
       </c>
       <c r="Y32" t="n">
-        <v>1349.126238781879</v>
+        <v>1289.887442417528</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1226.247766280535</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C33" t="n">
-        <v>1119.791305117177</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D33" t="n">
-        <v>1024.701016263731</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E33" t="n">
-        <v>930.5806015906844</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F33" t="n">
-        <v>847.1967632068461</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G33" t="n">
-        <v>762.8256627965029</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H33" t="n">
-        <v>730.8830127630991</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I33" t="n">
-        <v>765.0997489345752</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J33" t="n">
-        <v>858.9930882810423</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K33" t="n">
-        <v>1019.471760335213</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L33" t="n">
-        <v>1235.255139210235</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M33" t="n">
-        <v>1487.064164512932</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N33" t="n">
-        <v>1745.537825434252</v>
+        <v>1061.861364220108</v>
       </c>
       <c r="O33" t="n">
-        <v>1981.990728248783</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P33" t="n">
-        <v>2171.765028813589</v>
+        <v>1488.088567599445</v>
       </c>
       <c r="Q33" t="n">
-        <v>2298.624123021823</v>
+        <v>1614.947661807679</v>
       </c>
       <c r="R33" t="n">
-        <v>2360.327577447737</v>
+        <v>1676.651116233592</v>
       </c>
       <c r="S33" t="n">
-        <v>2315.706546847471</v>
+        <v>1632.030085633326</v>
       </c>
       <c r="T33" t="n">
-        <v>2189.614991723123</v>
+        <v>1505.938530508979</v>
       </c>
       <c r="U33" t="n">
-        <v>2013.345154547004</v>
+        <v>1329.66869333286</v>
       </c>
       <c r="V33" t="n">
-        <v>1814.227636609004</v>
+        <v>1130.551175394859</v>
       </c>
       <c r="W33" t="n">
-        <v>1628.904882342198</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X33" t="n">
-        <v>1474.037446581078</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y33" t="n">
-        <v>1347.551667360298</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="34">
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>47.20655154895473</v>
+        <v>470.4214336074024</v>
       </c>
       <c r="C34" t="n">
-        <v>47.20655154895473</v>
+        <v>297.8597220906274</v>
       </c>
       <c r="D34" t="n">
-        <v>47.20655154895473</v>
+        <v>131.98172929215</v>
       </c>
       <c r="E34" t="n">
-        <v>47.20655154895473</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="F34" t="n">
-        <v>47.20655154895473</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="G34" t="n">
-        <v>47.20655154895473</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="H34" t="n">
-        <v>47.20655154895473</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I34" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J34" t="n">
         <v>106.1122152511379</v>
@@ -6888,22 +6888,22 @@
         <v>889.6597230122813</v>
       </c>
       <c r="T34" t="n">
-        <v>647.4124989156879</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="U34" t="n">
-        <v>369.0258669644309</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="V34" t="n">
-        <v>319.2329559626632</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="W34" t="n">
-        <v>47.20655154895473</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="X34" t="n">
-        <v>47.20655154895473</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="Y34" t="n">
-        <v>47.20655154895473</v>
+        <v>662.2400523263896</v>
       </c>
     </row>
     <row r="35">
@@ -6913,40 +6913,40 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1312.719145276847</v>
+        <v>1150.205539167272</v>
       </c>
       <c r="C35" t="n">
-        <v>874.5766724602698</v>
+        <v>1150.205539167272</v>
       </c>
       <c r="D35" t="n">
-        <v>874.5766724602698</v>
+        <v>1150.205539167272</v>
       </c>
       <c r="E35" t="n">
-        <v>874.5766724602698</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="F35" t="n">
-        <v>446.7092428694776</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G35" t="n">
-        <v>47.20655154895474</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H35" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I35" t="n">
-        <v>118.4065018001355</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J35" t="n">
-        <v>276.0532770435808</v>
+        <v>276.0532770435806</v>
       </c>
       <c r="K35" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228016</v>
       </c>
       <c r="L35" t="n">
-        <v>805.4408022867025</v>
+        <v>805.4408022867023</v>
       </c>
       <c r="M35" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N35" t="n">
         <v>1463.013992431967</v>
@@ -6955,7 +6955,7 @@
         <v>1775.96950697326</v>
       </c>
       <c r="P35" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q35" t="n">
         <v>2243.650993163596</v>
@@ -6964,25 +6964,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S35" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T35" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U35" t="n">
-        <v>2143.874170350721</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="V35" t="n">
-        <v>2143.874170350721</v>
+        <v>1957.24425759636</v>
       </c>
       <c r="W35" t="n">
-        <v>1739.018715761754</v>
+        <v>1957.24425759636</v>
       </c>
       <c r="X35" t="n">
-        <v>1739.018715761754</v>
+        <v>1957.24425759636</v>
       </c>
       <c r="Y35" t="n">
-        <v>1739.018715761754</v>
+        <v>1548.958133896013</v>
       </c>
     </row>
     <row r="36">
@@ -6995,25 +6995,25 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C36" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D36" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E36" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F36" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G36" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H36" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I36" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J36" t="n">
         <v>175.316627066898</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.2911785177464</v>
+        <v>621.5080762876948</v>
       </c>
       <c r="C37" t="n">
-        <v>52.2911785177464</v>
+        <v>621.5080762876948</v>
       </c>
       <c r="D37" t="n">
-        <v>52.2911785177464</v>
+        <v>621.5080762876948</v>
       </c>
       <c r="E37" t="n">
-        <v>52.2911785177464</v>
+        <v>451.7500725384321</v>
       </c>
       <c r="F37" t="n">
-        <v>52.2911785177464</v>
+        <v>275.0430185001883</v>
       </c>
       <c r="G37" t="n">
-        <v>47.20655154895474</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="H37" t="n">
-        <v>47.20655154895474</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I37" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J37" t="n">
         <v>106.1122152511379</v>
@@ -7128,19 +7128,19 @@
         <v>889.6597230122813</v>
       </c>
       <c r="U37" t="n">
-        <v>611.2730910610244</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="V37" t="n">
-        <v>324.3175829314549</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="W37" t="n">
-        <v>52.2911785177464</v>
+        <v>621.5080762876948</v>
       </c>
       <c r="X37" t="n">
-        <v>52.2911785177464</v>
+        <v>621.5080762876948</v>
       </c>
       <c r="Y37" t="n">
-        <v>52.2911785177464</v>
+        <v>621.5080762876948</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>910.9837659653025</v>
+        <v>1655.935061595081</v>
       </c>
       <c r="C38" t="n">
-        <v>910.9837659653025</v>
+        <v>1217.792588778505</v>
       </c>
       <c r="D38" t="n">
-        <v>475.073981139747</v>
+        <v>1217.792588778505</v>
       </c>
       <c r="E38" t="n">
-        <v>475.073981139747</v>
+        <v>874.5766724602698</v>
       </c>
       <c r="F38" t="n">
-        <v>47.20655154895474</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G38" t="n">
         <v>47.20655154895474</v>
@@ -7171,28 +7171,28 @@
         <v>47.20655154895474</v>
       </c>
       <c r="I38" t="n">
-        <v>118.406501800135</v>
+        <v>118.4065018001355</v>
       </c>
       <c r="J38" t="n">
-        <v>276.0532770435802</v>
+        <v>276.0532770435808</v>
       </c>
       <c r="K38" t="n">
-        <v>512.3249274228012</v>
+        <v>512.3249274228018</v>
       </c>
       <c r="L38" t="n">
-        <v>805.4408022867019</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M38" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N38" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O38" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P38" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q38" t="n">
         <v>2243.650993163596</v>
@@ -7201,25 +7201,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S38" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T38" t="n">
-        <v>2360.099994630998</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U38" t="n">
-        <v>2101.029303152512</v>
+        <v>2060.790516184048</v>
       </c>
       <c r="V38" t="n">
-        <v>1738.412353086338</v>
+        <v>2060.790516184048</v>
       </c>
       <c r="W38" t="n">
-        <v>1738.412353086338</v>
+        <v>1655.935061595081</v>
       </c>
       <c r="X38" t="n">
-        <v>1319.269889665649</v>
+        <v>1655.935061595081</v>
       </c>
       <c r="Y38" t="n">
-        <v>910.9837659653025</v>
+        <v>1655.935061595081</v>
       </c>
     </row>
     <row r="39">
@@ -7232,25 +7232,25 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C39" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D39" t="n">
-        <v>341.0245550495863</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E39" t="n">
-        <v>246.90414037654</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F39" t="n">
-        <v>163.5203019927016</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G39" t="n">
-        <v>79.14920158235847</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H39" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I39" t="n">
-        <v>81.42328772043084</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J39" t="n">
         <v>175.316627066898</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.2911785177464</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="C40" t="n">
-        <v>52.2911785177464</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="D40" t="n">
-        <v>52.2911785177464</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="E40" t="n">
-        <v>52.2911785177464</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="F40" t="n">
-        <v>52.2911785177464</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="G40" t="n">
-        <v>52.2911785177464</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H40" t="n">
-        <v>52.2911785177464</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I40" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J40" t="n">
         <v>106.1122152511379</v>
@@ -7359,25 +7359,25 @@
         <v>889.6597230122813</v>
       </c>
       <c r="S40" t="n">
-        <v>889.6597230122813</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="T40" t="n">
-        <v>889.6597230122813</v>
+        <v>571.7114632430121</v>
       </c>
       <c r="U40" t="n">
-        <v>611.2730910610244</v>
+        <v>571.7114632430121</v>
       </c>
       <c r="V40" t="n">
-        <v>324.3175829314549</v>
+        <v>571.7114632430121</v>
       </c>
       <c r="W40" t="n">
-        <v>52.2911785177464</v>
+        <v>571.7114632430121</v>
       </c>
       <c r="X40" t="n">
-        <v>52.2911785177464</v>
+        <v>571.7114632430121</v>
       </c>
       <c r="Y40" t="n">
-        <v>52.2911785177464</v>
+        <v>344.2917925571204</v>
       </c>
     </row>
     <row r="41">
@@ -7387,46 +7387,46 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1782.900983623584</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="C41" t="n">
-        <v>1344.758510807007</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="D41" t="n">
-        <v>908.8487259814518</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="E41" t="n">
-        <v>475.073981139747</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="F41" t="n">
-        <v>47.20655154895474</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G41" t="n">
-        <v>47.20655154895474</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H41" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I41" t="n">
-        <v>118.406501800135</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J41" t="n">
-        <v>276.0532770435802</v>
+        <v>276.0532770435806</v>
       </c>
       <c r="K41" t="n">
-        <v>512.3249274228012</v>
+        <v>512.3249274228016</v>
       </c>
       <c r="L41" t="n">
-        <v>805.4408022867019</v>
+        <v>805.4408022867023</v>
       </c>
       <c r="M41" t="n">
         <v>1131.588690455489</v>
       </c>
       <c r="N41" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O41" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P41" t="n">
         <v>2043.069798152528</v>
@@ -7441,22 +7441,22 @@
         <v>2319.861207662534</v>
       </c>
       <c r="T41" t="n">
-        <v>2319.861207662534</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U41" t="n">
-        <v>2319.861207662534</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V41" t="n">
-        <v>1957.24425759636</v>
+        <v>1486.402314586986</v>
       </c>
       <c r="W41" t="n">
-        <v>1957.24425759636</v>
+        <v>1081.54685999802</v>
       </c>
       <c r="X41" t="n">
-        <v>1957.24425759636</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="Y41" t="n">
-        <v>1957.24425759636</v>
+        <v>716.4307943255671</v>
       </c>
     </row>
     <row r="42">
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>753.852136908379</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="C43" t="n">
-        <v>753.852136908379</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="D43" t="n">
-        <v>753.852136908379</v>
+        <v>579.3551917180386</v>
       </c>
       <c r="E43" t="n">
-        <v>584.0941331591162</v>
+        <v>409.5971879687758</v>
       </c>
       <c r="F43" t="n">
         <v>407.3870791208724</v>
@@ -7596,25 +7596,25 @@
         <v>889.6597230122813</v>
       </c>
       <c r="S43" t="n">
-        <v>889.6597230122813</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="T43" t="n">
-        <v>889.6597230122813</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="U43" t="n">
-        <v>889.6597230122813</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="V43" t="n">
-        <v>889.6597230122813</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="W43" t="n">
-        <v>889.6597230122813</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="X43" t="n">
-        <v>889.6597230122813</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.852136908379</v>
+        <v>745.2331845165158</v>
       </c>
     </row>
     <row r="44">
@@ -7624,10 +7624,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1486.402314586987</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="C44" t="n">
-        <v>1048.25984177041</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="D44" t="n">
         <v>716.4307943255671</v>
@@ -7642,10 +7642,10 @@
         <v>316.9281030050443</v>
       </c>
       <c r="H44" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I44" t="n">
-        <v>118.4065018001354</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J44" t="n">
         <v>276.0532770435806</v>
@@ -7654,19 +7654,19 @@
         <v>512.3249274228016</v>
       </c>
       <c r="L44" t="n">
-        <v>805.4408022867025</v>
+        <v>805.4408022867023</v>
       </c>
       <c r="M44" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N44" t="n">
         <v>1463.013992431967</v>
       </c>
       <c r="O44" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P44" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q44" t="n">
         <v>2243.650993163596</v>
@@ -7684,16 +7684,16 @@
         <v>1849.01926465316</v>
       </c>
       <c r="V44" t="n">
-        <v>1486.402314586987</v>
+        <v>1486.402314586986</v>
       </c>
       <c r="W44" t="n">
-        <v>1486.402314586987</v>
+        <v>1081.54685999802</v>
       </c>
       <c r="X44" t="n">
-        <v>1486.402314586987</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="Y44" t="n">
-        <v>1486.402314586987</v>
+        <v>716.4307943255671</v>
       </c>
     </row>
     <row r="45">
@@ -7709,22 +7709,22 @@
         <v>436.1148439030331</v>
       </c>
       <c r="D45" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E45" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F45" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G45" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235849</v>
       </c>
       <c r="H45" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I45" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J45" t="n">
         <v>175.316627066898</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>515.1866087173789</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="C46" t="n">
-        <v>515.1866087173789</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="D46" t="n">
-        <v>349.3086159189016</v>
+        <v>579.3551917180386</v>
       </c>
       <c r="E46" t="n">
-        <v>179.5506121696388</v>
+        <v>409.5971879687758</v>
       </c>
       <c r="F46" t="n">
-        <v>179.5506121696388</v>
+        <v>407.3870791208724</v>
       </c>
       <c r="G46" t="n">
-        <v>179.5506121696388</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H46" t="n">
-        <v>47.20655154895474</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I46" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J46" t="n">
         <v>106.1122152511379</v>
@@ -7833,25 +7833,25 @@
         <v>889.6597230122813</v>
       </c>
       <c r="S46" t="n">
-        <v>889.6597230122813</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="T46" t="n">
-        <v>889.6597230122813</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="U46" t="n">
-        <v>889.6597230122813</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="V46" t="n">
-        <v>602.7042148827118</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="W46" t="n">
-        <v>515.1866087173789</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="X46" t="n">
-        <v>515.1866087173789</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="Y46" t="n">
-        <v>515.1866087173789</v>
+        <v>745.2331845165158</v>
       </c>
     </row>
   </sheetData>
@@ -23257,19 +23257,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>339.0427370510389</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>50.69224154201572</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23308,16 +23308,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>40.06170608735098</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>400.806900043077</v>
@@ -23418,25 +23418,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>54.41876094125176</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>174.9399834978613</v>
+        <v>172.7519757384367</v>
       </c>
       <c r="G13" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>239.8247518556274</v>
@@ -23475,10 +23475,10 @@
         <v>275.6027656317444</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
         <v>242.9378371199217</v>
@@ -23494,25 +23494,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H14" t="n">
-        <v>56.13182533574883</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,22 +23545,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>40.06170608735098</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>226.7080828625508</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23652,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>164.2192128704925</v>
+        <v>32.8615649126252</v>
       </c>
       <c r="E16" t="n">
         <v>168.0604237117701</v>
@@ -23703,13 +23703,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>104.927971666038</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U16" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="17">
@@ -23743,13 +23743,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>375.0829218623507</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23782,13 +23782,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>40.06170608735098</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T17" t="n">
-        <v>209.6535390155789</v>
+        <v>159.24107071362</v>
       </c>
       <c r="U17" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23797,7 +23797,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23892,19 +23892,19 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>174.9399834978613</v>
+        <v>150.1031164274526</v>
       </c>
       <c r="G19" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>131.0206200144773</v>
@@ -23940,19 +23940,19 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>102.1704786355869</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U19" t="n">
         <v>275.6027656317444</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
         <v>242.9378371199217</v>
@@ -23974,16 +23974,16 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24019,22 +24019,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T20" t="n">
-        <v>173.4861468346814</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V20" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>414.9510387864824</v>
+        <v>79.57925990787663</v>
       </c>
       <c r="Y20" t="n">
         <v>404.2032624633431</v>
@@ -24132,13 +24132,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>174.9399834978613</v>
+        <v>150.1031164274526</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>131.0206200144773</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24180,7 +24180,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U22" t="n">
         <v>275.6027656317444</v>
@@ -24189,7 +24189,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
-        <v>214.4787222706419</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
         <v>242.9378371199217</v>
@@ -24214,13 +24214,13 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E23" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -24256,25 +24256,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>241.8456025695139</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>62.18173182677947</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="24">
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
         <v>170.8360944016073</v>
@@ -24378,13 +24378,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>102.7488399135408</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24423,13 +24423,13 @@
         <v>275.6027656317444</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>256.4156793871576</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>225.1454739790328</v>
@@ -24445,16 +24445,16 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C26" t="n">
-        <v>248.1242944610171</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D26" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>199.3027768009703</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -24496,22 +24496,22 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24600,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
         <v>168.0604237117701</v>
@@ -24615,10 +24615,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>136.3076363022218</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H28" t="n">
-        <v>131.0206200144773</v>
+        <v>129.915707394397</v>
       </c>
       <c r="I28" t="n">
         <v>62.46433369811443</v>
@@ -24682,22 +24682,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>267.0243359415286</v>
+        <v>2.676651360263747</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24730,25 +24730,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>37.05369778253024</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y29" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24843,19 +24843,19 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>174.9399834978613</v>
+        <v>110.2876420403225</v>
       </c>
       <c r="G31" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>62.46433369811443</v>
@@ -24888,22 +24888,22 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
-        <v>208.422667906874</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
         <v>225.1454739790328</v>
@@ -24916,19 +24916,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>422.0365747800587</v>
+        <v>54.98053830187001</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E32" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
         <v>395.5076644073176</v>
@@ -24967,25 +24967,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U32" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y32" t="n">
-        <v>218.871876013704</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25074,16 +25074,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>168.0604237117701</v>
+        <v>146.5973314441212</v>
       </c>
       <c r="F34" t="n">
         <v>174.9399834978613</v>
@@ -25095,7 +25095,7 @@
         <v>131.0206200144773</v>
       </c>
       <c r="I34" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25128,22 +25128,22 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V34" t="n">
-        <v>234.7909711565238</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X34" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y34" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25153,25 +25153,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>27.27150599860482</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25204,25 +25204,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U35" t="n">
-        <v>42.19111153765559</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V35" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25320,19 +25320,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>158.059987884503</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>131.0206200144773</v>
       </c>
       <c r="I37" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25368,13 +25368,13 @@
         <v>239.8247518556274</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>3.836010112230781</v>
       </c>
       <c r="X37" t="n">
         <v>242.9378371199217</v>
@@ -25393,19 +25393,19 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>429.4369973932878</v>
+        <v>89.65324023823518</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>267.0243359415286</v>
@@ -25441,25 +25441,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>209.4282320270078</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="39">
@@ -25563,13 +25563,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>57.43055299901067</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,25 +25599,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>239.8247518556274</v>
+        <v>68.03824779485871</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25627,25 +25627,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>249.4367335470103</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25681,19 +25681,19 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>53.48613377075435</v>
       </c>
       <c r="Y41" t="n">
         <v>404.2032624633431</v>
@@ -25791,13 +25791,13 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>172.751975738437</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>239.8247518556274</v>
@@ -25854,7 +25854,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
-        <v>90.69596373616943</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="44">
@@ -25867,10 +25867,10 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>103.0399300069053</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
         <v>429.4369973932878</v>
@@ -25927,10 +25927,10 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>53.48613377075435</v>
       </c>
       <c r="Y44" t="n">
         <v>404.2032624633431</v>
@@ -26034,16 +26034,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>174.9399834978613</v>
+        <v>172.751975738437</v>
       </c>
       <c r="G46" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>239.8247518556274</v>
@@ -26082,10 +26082,10 @@
         <v>275.6027656317444</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
-        <v>182.6637102658919</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
         <v>242.9378371199217</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>356556.3948348164</v>
+        <v>356556.3948348165</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>356556.3948348164</v>
+        <v>356556.3948348166</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>356556.3948348163</v>
+        <v>356556.3948348165</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>356556.3948348165</v>
+        <v>356556.3948348166</v>
       </c>
     </row>
     <row r="15">
@@ -26322,7 +26322,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>132834.7353306179</v>
+        <v>132834.735330618</v>
       </c>
       <c r="F2" t="n">
         <v>132834.7353306179</v>
@@ -26355,7 +26355,7 @@
         <v>132834.7353306179</v>
       </c>
       <c r="P2" t="n">
-        <v>132834.7353306179</v>
+        <v>132834.735330618</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>551135.2009906757</v>
+        <v>551135.2009906759</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>147050.7684025715</v>
+        <v>147050.7684025714</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,34 +26426,34 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
+        <v>414.290544423169</v>
+      </c>
+      <c r="F4" t="n">
+        <v>414.290544423169</v>
+      </c>
+      <c r="G4" t="n">
         <v>414.2905444231689</v>
       </c>
-      <c r="F4" t="n">
-        <v>414.2905444231689</v>
-      </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>414.290544423169</v>
       </c>
-      <c r="H4" t="n">
-        <v>414.2905444231689</v>
-      </c>
       <c r="I4" t="n">
-        <v>414.2905444231689</v>
+        <v>414.290544423169</v>
       </c>
       <c r="J4" t="n">
-        <v>414.2905444231689</v>
+        <v>414.290544423169</v>
       </c>
       <c r="K4" t="n">
-        <v>414.2905444231689</v>
+        <v>414.290544423169</v>
       </c>
       <c r="L4" t="n">
-        <v>414.2905444231689</v>
+        <v>414.290544423169</v>
       </c>
       <c r="M4" t="n">
         <v>414.2905444231689</v>
       </c>
       <c r="N4" t="n">
-        <v>414.2905444231689</v>
+        <v>414.290544423169</v>
       </c>
       <c r="O4" t="n">
         <v>414.2905444231689</v>
@@ -26484,7 +26484,7 @@
         <v>46051.08120963782</v>
       </c>
       <c r="G5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="H5" t="n">
         <v>46051.08120963782</v>
@@ -26493,25 +26493,25 @@
         <v>46051.08120963782</v>
       </c>
       <c r="J5" t="n">
+        <v>46051.08120963782</v>
+      </c>
+      <c r="K5" t="n">
+        <v>46051.08120963782</v>
+      </c>
+      <c r="L5" t="n">
+        <v>46051.08120963782</v>
+      </c>
+      <c r="M5" t="n">
         <v>46051.08120963781</v>
       </c>
-      <c r="K5" t="n">
-        <v>46051.08120963781</v>
-      </c>
-      <c r="L5" t="n">
-        <v>46051.08120963781</v>
-      </c>
-      <c r="M5" t="n">
+      <c r="N5" t="n">
         <v>46051.08120963782</v>
-      </c>
-      <c r="N5" t="n">
-        <v>46051.08120963781</v>
       </c>
       <c r="O5" t="n">
         <v>46051.08120963781</v>
       </c>
       <c r="P5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="C6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="D6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="E6" t="n">
-        <v>-464765.8374141188</v>
+        <v>-465407.0755278943</v>
       </c>
       <c r="F6" t="n">
-        <v>86369.36357655695</v>
+        <v>85728.12546278155</v>
       </c>
       <c r="G6" t="n">
-        <v>86369.36357655692</v>
+        <v>85728.12546278154</v>
       </c>
       <c r="H6" t="n">
-        <v>86369.36357655695</v>
+        <v>85728.12546278155</v>
       </c>
       <c r="I6" t="n">
-        <v>86369.36357655692</v>
+        <v>85728.12546278152</v>
       </c>
       <c r="J6" t="n">
-        <v>86369.36357655693</v>
+        <v>85728.12546278155</v>
       </c>
       <c r="K6" t="n">
-        <v>86369.36357655693</v>
+        <v>85728.12546278155</v>
       </c>
       <c r="L6" t="n">
-        <v>86369.36357655691</v>
+        <v>85728.12546278155</v>
       </c>
       <c r="M6" t="n">
-        <v>-60681.40482601459</v>
+        <v>-61322.64293978992</v>
       </c>
       <c r="N6" t="n">
-        <v>86369.36357655693</v>
+        <v>85728.12546278155</v>
       </c>
       <c r="O6" t="n">
-        <v>86369.36357655693</v>
+        <v>85728.12546278157</v>
       </c>
       <c r="P6" t="n">
-        <v>86369.36357655695</v>
+        <v>85728.12546278159</v>
       </c>
     </row>
   </sheetData>
@@ -26746,7 +26746,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932213</v>
       </c>
       <c r="F3" t="n">
         <v>466.7019280932212</v>
@@ -26804,7 +26804,7 @@
         <v>590.0818943619342</v>
       </c>
       <c r="G4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="H4" t="n">
         <v>590.0818943619342</v>
@@ -26813,25 +26813,25 @@
         <v>590.0818943619342</v>
       </c>
       <c r="J4" t="n">
+        <v>590.0818943619342</v>
+      </c>
+      <c r="K4" t="n">
+        <v>590.0818943619342</v>
+      </c>
+      <c r="L4" t="n">
+        <v>590.0818943619342</v>
+      </c>
+      <c r="M4" t="n">
         <v>590.0818943619341</v>
       </c>
-      <c r="K4" t="n">
-        <v>590.0818943619341</v>
-      </c>
-      <c r="L4" t="n">
-        <v>590.0818943619341</v>
-      </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>590.0818943619342</v>
-      </c>
-      <c r="N4" t="n">
-        <v>590.0818943619341</v>
       </c>
       <c r="O4" t="n">
         <v>590.0818943619341</v>
       </c>
       <c r="P4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
     </row>
   </sheetData>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932213</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>590.0818943619344</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31755,13 +31755,13 @@
         <v>1.876188655651139</v>
       </c>
       <c r="H11" t="n">
-        <v>19.21451706968723</v>
+        <v>19.21451706968724</v>
       </c>
       <c r="I11" t="n">
-        <v>72.33176314699061</v>
+        <v>72.33176314699062</v>
       </c>
       <c r="J11" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125711</v>
       </c>
       <c r="K11" t="n">
         <v>238.6582327062838</v>
@@ -31770,10 +31770,10 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M11" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816034</v>
       </c>
       <c r="N11" t="n">
-        <v>334.7730322994721</v>
+        <v>334.7730322994722</v>
       </c>
       <c r="O11" t="n">
         <v>316.1166813548411</v>
@@ -31788,10 +31788,10 @@
         <v>117.855135640546</v>
       </c>
       <c r="S11" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065038</v>
       </c>
       <c r="T11" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112867</v>
       </c>
       <c r="U11" t="n">
         <v>0.1500950924520911</v>
@@ -31831,31 +31831,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.003849430238249</v>
+        <v>1.00384943023825</v>
       </c>
       <c r="H12" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879938</v>
       </c>
       <c r="I12" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J12" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562341</v>
       </c>
       <c r="K12" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L12" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646691</v>
       </c>
       <c r="M12" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108056</v>
       </c>
       <c r="N12" t="n">
         <v>261.0845059811314</v>
       </c>
       <c r="O12" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P12" t="n">
         <v>191.6912126917233</v>
@@ -31864,16 +31864,16 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R12" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233626</v>
       </c>
       <c r="S12" t="n">
-        <v>18.64606288183764</v>
+        <v>18.64606288183765</v>
       </c>
       <c r="T12" t="n">
         <v>4.046217659600662</v>
       </c>
       <c r="U12" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356907</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,25 +31910,25 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238416</v>
       </c>
       <c r="H13" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051978</v>
       </c>
       <c r="I13" t="n">
-        <v>25.30901603495698</v>
+        <v>25.30901603495699</v>
       </c>
       <c r="J13" t="n">
-        <v>59.50067040624558</v>
+        <v>59.5006704062456</v>
       </c>
       <c r="K13" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116994</v>
       </c>
       <c r="L13" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M13" t="n">
-        <v>131.9236286247772</v>
+        <v>131.9236286247773</v>
       </c>
       <c r="N13" t="n">
         <v>128.7867795998885</v>
@@ -31940,19 +31940,19 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q13" t="n">
-        <v>70.47199114207639</v>
+        <v>70.4719911420764</v>
       </c>
       <c r="R13" t="n">
-        <v>37.84111043195198</v>
+        <v>37.841110431952</v>
       </c>
       <c r="S13" t="n">
         <v>14.66668190417549</v>
       </c>
       <c r="T13" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701868</v>
       </c>
       <c r="U13" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.0459051076813005</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31995,7 +31995,7 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I14" t="n">
-        <v>72.33176314699067</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J14" t="n">
         <v>159.239166912571</v>
@@ -32247,7 +32247,7 @@
         <v>329.4423112816033</v>
       </c>
       <c r="N17" t="n">
-        <v>334.7730322994722</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O17" t="n">
         <v>316.1166813548411</v>
@@ -32262,10 +32262,10 @@
         <v>117.855135640546</v>
       </c>
       <c r="S17" t="n">
-        <v>42.75364899065038</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T17" t="n">
-        <v>8.213015840112867</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U17" t="n">
         <v>0.1500950924520911</v>
@@ -32308,10 +32308,10 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H18" t="n">
-        <v>9.695072128879938</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I18" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J18" t="n">
         <v>94.84175691562339</v>
@@ -32320,7 +32320,7 @@
         <v>162.0996687415861</v>
       </c>
       <c r="L18" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M18" t="n">
         <v>254.3525508108055</v>
@@ -32338,16 +32338,16 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R18" t="n">
-        <v>62.32672164233625</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S18" t="n">
-        <v>18.64606288183765</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T18" t="n">
         <v>4.046217659600662</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06604272567356907</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,25 +32384,25 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8415936408238415</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H19" t="n">
         <v>7.482532552051977</v>
       </c>
       <c r="I19" t="n">
-        <v>25.30901603495699</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J19" t="n">
-        <v>59.50067040624559</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K19" t="n">
-        <v>97.77787936116992</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L19" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M19" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N19" t="n">
         <v>128.7867795998885</v>
@@ -32414,10 +32414,10 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q19" t="n">
-        <v>70.4719911420764</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R19" t="n">
-        <v>37.84111043195199</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S19" t="n">
         <v>14.66668190417549</v>
@@ -32426,7 +32426,7 @@
         <v>3.595900101701867</v>
       </c>
       <c r="U19" t="n">
-        <v>0.0459051076813005</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32472,7 +32472,7 @@
         <v>72.33176314699061</v>
       </c>
       <c r="J20" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125712</v>
       </c>
       <c r="K20" t="n">
         <v>238.6582327062838</v>
@@ -32806,7 +32806,7 @@
         <v>238.8413159742733</v>
       </c>
       <c r="P24" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q24" t="n">
         <v>128.1404992002369</v>
@@ -33499,7 +33499,7 @@
         <v>34.5623597691678</v>
       </c>
       <c r="J33" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K33" t="n">
         <v>162.0996687415861</v>
@@ -34210,7 +34210,7 @@
         <v>34.5623597691678</v>
       </c>
       <c r="J42" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562342</v>
       </c>
       <c r="K42" t="n">
         <v>162.0996687415861</v>
@@ -34234,7 +34234,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R42" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S42" t="n">
         <v>18.64606288183764</v>
@@ -35406,22 +35406,22 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785922</v>
       </c>
       <c r="J11" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K11" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062836</v>
       </c>
       <c r="L11" t="n">
-        <v>296.0766412766676</v>
+        <v>296.0766412766675</v>
       </c>
       <c r="M11" t="n">
         <v>329.4423112816032</v>
       </c>
       <c r="N11" t="n">
-        <v>334.7730322994721</v>
+        <v>334.7730322994723</v>
       </c>
       <c r="O11" t="n">
         <v>316.1166813548411</v>
@@ -35488,25 +35488,25 @@
         <v>34.56235976916781</v>
       </c>
       <c r="J12" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562342</v>
       </c>
       <c r="K12" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L12" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646691</v>
       </c>
       <c r="M12" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108056</v>
       </c>
       <c r="N12" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811315</v>
       </c>
       <c r="O12" t="n">
         <v>238.8413159742734</v>
       </c>
       <c r="P12" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917234</v>
       </c>
       <c r="Q12" t="n">
         <v>128.1404992002369</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>59.50067040624558</v>
+        <v>59.5006704062456</v>
       </c>
       <c r="K13" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116994</v>
       </c>
       <c r="L13" t="n">
         <v>125.1220218366646</v>
@@ -35591,7 +35591,7 @@
         <v>70.47199114207638</v>
       </c>
       <c r="R13" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027016</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -35643,7 +35643,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>71.91914166785926</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J14" t="n">
         <v>159.239166912571</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>59.50067040624549</v>
+        <v>59.5006704062456</v>
       </c>
       <c r="K16" t="n">
-        <v>97.77787936116988</v>
+        <v>97.77787936116994</v>
       </c>
       <c r="L16" t="n">
-        <v>125.1220218366645</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M16" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N16" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O16" t="n">
-        <v>118.95543570481</v>
+        <v>118.9554357048099</v>
       </c>
       <c r="P16" t="n">
         <v>101.7869254320035</v>
       </c>
       <c r="Q16" t="n">
-        <v>70.4719911420766</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R16" t="n">
         <v>16.63746735027015</v>
@@ -35883,25 +35883,25 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J17" t="n">
-        <v>159.2391669125709</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K17" t="n">
         <v>238.6582327062838</v>
       </c>
       <c r="L17" t="n">
-        <v>296.0766412766676</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M17" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N17" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O17" t="n">
-        <v>316.1166813548409</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P17" t="n">
-        <v>269.7982739184538</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q17" t="n">
         <v>202.6072676879471</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J18" t="n">
         <v>94.84175691562339</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>59.50067040624549</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K19" t="n">
-        <v>97.77787936116988</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L19" t="n">
-        <v>125.1220218366645</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M19" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N19" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O19" t="n">
-        <v>118.95543570481</v>
+        <v>118.9554357048099</v>
       </c>
       <c r="P19" t="n">
         <v>101.7869254320035</v>
       </c>
       <c r="Q19" t="n">
-        <v>70.4719911420766</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R19" t="n">
         <v>16.63746735027015</v>
@@ -36120,7 +36120,7 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J20" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125712</v>
       </c>
       <c r="K20" t="n">
         <v>238.6582327062838</v>
@@ -36129,7 +36129,7 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M20" t="n">
-        <v>329.4423112816035</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N20" t="n">
         <v>334.7730322994721</v>
@@ -36196,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>34.56235976916792</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J21" t="n">
-        <v>94.84175691562325</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K21" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L21" t="n">
         <v>217.963008964669</v>
@@ -36211,19 +36211,19 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N21" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O21" t="n">
         <v>238.8413159742734</v>
       </c>
       <c r="P21" t="n">
-        <v>191.6912126917234</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q21" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R21" t="n">
-        <v>62.326721642336</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J23" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K23" t="n">
         <v>238.6582327062838</v>
@@ -36366,10 +36366,10 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M23" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N23" t="n">
-        <v>334.7730322994719</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O23" t="n">
         <v>316.1166813548411</v>
@@ -36378,7 +36378,7 @@
         <v>269.7982739184536</v>
       </c>
       <c r="Q23" t="n">
-        <v>202.6072676879476</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R23" t="n">
         <v>117.855135640546</v>
@@ -36600,10 +36600,10 @@
         <v>238.6582327062838</v>
       </c>
       <c r="L26" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M26" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N26" t="n">
         <v>334.7730322994721</v>
@@ -36612,7 +36612,7 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P26" t="n">
-        <v>269.7982739184533</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q26" t="n">
         <v>202.6072676879471</v>
@@ -36670,16 +36670,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>34.56235976916779</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J27" t="n">
         <v>94.84175691562339</v>
       </c>
       <c r="K27" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L27" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646691</v>
       </c>
       <c r="M27" t="n">
         <v>254.3525508108055</v>
@@ -36755,7 +36755,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K28" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L28" t="n">
         <v>125.1220218366646</v>
@@ -36831,7 +36831,7 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J29" t="n">
-        <v>159.2391669125709</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K29" t="n">
         <v>238.6582327062838</v>
@@ -36840,7 +36840,7 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M29" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N29" t="n">
         <v>334.7730322994721</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>34.56235976916779</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J30" t="n">
         <v>94.84175691562339</v>
@@ -36992,7 +36992,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K31" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L31" t="n">
         <v>125.1220218366646</v>
@@ -37071,7 +37071,7 @@
         <v>159.239166912571</v>
       </c>
       <c r="K32" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L32" t="n">
         <v>296.0766412766674</v>
@@ -37086,7 +37086,7 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P32" t="n">
-        <v>269.7982739184533</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q32" t="n">
         <v>202.6072676879471</v>
@@ -37144,16 +37144,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>34.56235976916776</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J33" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K33" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L33" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M33" t="n">
         <v>254.3525508108055</v>
@@ -37168,10 +37168,10 @@
         <v>191.6912126917232</v>
       </c>
       <c r="Q33" t="n">
-        <v>128.1404992002367</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R33" t="n">
-        <v>62.32672164233645</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37229,7 +37229,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K34" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L34" t="n">
         <v>125.1220218366646</v>
@@ -37323,7 +37323,7 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P35" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q35" t="n">
         <v>202.6072676879471</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J36" t="n">
         <v>94.84175691562339</v>
@@ -37466,7 +37466,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K37" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L37" t="n">
         <v>125.1220218366646</v>
@@ -37551,7 +37551,7 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M38" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N38" t="n">
         <v>334.7730322994721</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>34.56235976916779</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J39" t="n">
         <v>94.84175691562339</v>
@@ -37703,7 +37703,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K40" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L40" t="n">
         <v>125.1220218366646</v>
@@ -37788,7 +37788,7 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M41" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N41" t="n">
         <v>334.7730322994721</v>
@@ -37797,7 +37797,7 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P41" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q41" t="n">
         <v>202.6072676879471</v>
@@ -37858,7 +37858,7 @@
         <v>34.56235976916779</v>
       </c>
       <c r="J42" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562342</v>
       </c>
       <c r="K42" t="n">
         <v>162.0996687415861</v>
@@ -38019,10 +38019,10 @@
         <v>159.239166912571</v>
       </c>
       <c r="K44" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L44" t="n">
-        <v>296.0766412766676</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M44" t="n">
         <v>329.4423112816032</v>
@@ -38031,7 +38031,7 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O44" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P44" t="n">
         <v>269.7982739184536</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J45" t="n">
         <v>94.84175691562339</v>
@@ -38177,7 +38177,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K46" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L46" t="n">
         <v>125.1220218366646</v>
